--- a/graphs/graf_Ostatni_paragrafy.xlsx
+++ b/graphs/graf_Ostatni_paragrafy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,41 +507,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1862629119703553</v>
+        <v>0.1866971522772268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8951403468199137</v>
+        <v>0.9178219319077955</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.03396647760477259</v>
+        <v>0.04167265376799948</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3903218158895922</v>
+        <v>0.4365434410783449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1657437459959089</v>
+        <v>0.1525580802889558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.105140868413646</v>
+        <v>0.1204688330593457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2043637507940796</v>
+        <v>0.1731233949722006</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1326652103580814</v>
+        <v>0.1336856352583168</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2552613875118211</v>
+        <v>0.2639279102380451</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07208836665219</v>
+        <v>0.1047569208940615</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2760669229713985</v>
+        <v>0.8370480251431355</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8898901387083521</v>
+        <v>0.7694894712284466</v>
       </c>
     </row>
     <row r="3">
@@ -551,43 +551,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3535346520392555</v>
+        <v>0.5343543660983048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2876605038289387</v>
+        <v>0.3200301086465449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5316530388339876</v>
+        <v>0.4657485329001659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05075597930139855</v>
+        <v>0.0477730251378226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08256584860226834</v>
+        <v>0.09648556851931554</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2489006305132104</v>
+        <v>0.2668316796178249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2086182646921052</v>
+        <v>0.1971886196669761</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2040039554581746</v>
+        <v>0.1777107518302146</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2096315974895627</v>
+        <v>0.2128201088126784</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2409554118652762</v>
+        <v>0.2935125165681097</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2082342728046764</v>
+        <v>0.2503527283507321</v>
       </c>
       <c r="M3" t="n">
-        <v>0.658282313349961</v>
+        <v>0.6045136995017727</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05070864615857282</v>
+        <v>0.04393750655525916</v>
       </c>
     </row>
     <row r="4">
@@ -597,43 +597,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1730305225203511</v>
+        <v>0.1664300699286013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7781690827236987</v>
+        <v>0.6577704553488675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7418291859199921</v>
+        <v>0.6626131667406886</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4753801542749093</v>
+        <v>0.4187995695849742</v>
       </c>
       <c r="F4" t="n">
-        <v>0.802139102781618</v>
+        <v>0.8176871896309784</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48104138058324</v>
+        <v>1.425114620552768</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9571209240531429</v>
+        <v>0.833195513102874</v>
       </c>
       <c r="I4" t="n">
-        <v>1.906155079381578</v>
+        <v>1.177964271707429</v>
       </c>
       <c r="J4" t="n">
-        <v>1.150109492283298</v>
+        <v>1.113618886652585</v>
       </c>
       <c r="K4" t="n">
-        <v>1.193886663938901</v>
+        <v>1.125237792097865</v>
       </c>
       <c r="L4" t="n">
-        <v>1.035258528908981</v>
+        <v>1.108061057933006</v>
       </c>
       <c r="M4" t="n">
-        <v>1.145971940195927</v>
+        <v>0.999693230582391</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6802318259307678</v>
+        <v>0.6041033592972842</v>
       </c>
     </row>
     <row r="5">
@@ -643,43 +643,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.718630582011245</v>
+        <v>1.912985856667565</v>
       </c>
       <c r="C5" t="n">
-        <v>1.891393548023194</v>
+        <v>1.87412750660974</v>
       </c>
       <c r="D5" t="n">
-        <v>3.336789231644747</v>
+        <v>2.926087990760688</v>
       </c>
       <c r="E5" t="n">
-        <v>3.526444570718836</v>
+        <v>3.353093194105121</v>
       </c>
       <c r="F5" t="n">
-        <v>2.197719453817951</v>
+        <v>2.468256257676684</v>
       </c>
       <c r="G5" t="n">
-        <v>3.654610835716686</v>
+        <v>2.670750315829411</v>
       </c>
       <c r="H5" t="n">
-        <v>4.126870480553724</v>
+        <v>3.374895134669077</v>
       </c>
       <c r="I5" t="n">
-        <v>3.934970107504181</v>
+        <v>3.39650942149099</v>
       </c>
       <c r="J5" t="n">
-        <v>2.28493417647442</v>
+        <v>2.247608797562581</v>
       </c>
       <c r="K5" t="n">
-        <v>5.439667716387453</v>
+        <v>4.887974731055325</v>
       </c>
       <c r="L5" t="n">
-        <v>2.152016283887015</v>
+        <v>2.690965148840848</v>
       </c>
       <c r="M5" t="n">
-        <v>2.928551343450377</v>
+        <v>3.614996905093608</v>
       </c>
       <c r="N5" t="n">
-        <v>2.25559008793668</v>
+        <v>2.602770546501479</v>
       </c>
     </row>
     <row r="6">
@@ -689,43 +689,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2071512392200351</v>
+        <v>0.2294644354302964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478780343894018</v>
+        <v>0.6022915608300349</v>
       </c>
       <c r="D6" t="n">
-        <v>1.875138239209009</v>
+        <v>2.228932572884903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08609973260504064</v>
+        <v>0.07702694125324124</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1880255529880298</v>
+        <v>0.1845363441838213</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05442817247744459</v>
+        <v>0.05839665464333128</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09130462472369982</v>
+        <v>0.1663086228468149</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3493659857779862</v>
+        <v>1.664711259800832</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8630262157689254</v>
+        <v>1.004495557217532</v>
       </c>
       <c r="K6" t="n">
-        <v>0.237727757337364</v>
+        <v>0.2611710227225326</v>
       </c>
       <c r="L6" t="n">
-        <v>1.084883280007285</v>
+        <v>1.351960704188667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8837304080279045</v>
+        <v>0.9807699309524652</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04793421368142008</v>
+        <v>0.03579269416154651</v>
       </c>
     </row>
     <row r="7">
@@ -735,89 +735,135 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2655352822560999</v>
+        <v>0.2765237287151179</v>
       </c>
       <c r="C7" t="n">
-        <v>1.120783768505693</v>
+        <v>1.080432529263819</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1350727797400599</v>
+        <v>0.1663023159828028</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2677966523285426</v>
+        <v>0.294437503531651</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6794493076601268</v>
+        <v>0.7803771592175346</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5223852608265739</v>
+        <v>0.5622048807040523</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6083490381684038</v>
+        <v>0.694679250688694</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1013183665908676</v>
+        <v>0.289805036344589</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2633587974042219</v>
+        <v>0.3486623423982982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8687765157580754</v>
+        <v>0.8841648604976358</v>
       </c>
       <c r="L7" t="n">
-        <v>9.643138796209207</v>
+        <v>1.51050809055772</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1046429477207845</v>
+        <v>0.08974236811319088</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2444002538206457</v>
+        <v>0.1718842518839516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>Ostatní záležitosti kultury, církví a sdělovacích prostředků</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.06329371815722334</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03664187183954028</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01525411633039692</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01487781527312316</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04452210899022485</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03544705968156626</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01866244782363536</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01249717930331406</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03298915823491087</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01644440946596509</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1258209762279998</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Ostatní </t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.3407652038535909</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3410393584043687</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4620074165500866</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2094197370996089</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5090053243602853</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1282467246280504</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1172246332400629</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3272963253840445</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.07278808047056984</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.4616544474506755</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.3424763036987277</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.09007856131497238</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1193758831761588</v>
+      <c r="B9" t="n">
+        <v>0.2530262955131115</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.407307010492596</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2194308414344488</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.217440692101715</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4554822483337393</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.06009444701049167</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08742014065999458</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2814134378400713</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1545147933100013</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4403896453871687</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3438158996200942</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01065240824173599</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1277660377476685</v>
       </c>
     </row>
   </sheetData>
